--- a/JUnit/src/test/java/Day_13_ExcelAutomation/ulke.xlsx
+++ b/JUnit/src/test/java/Day_13_ExcelAutomation/ulke.xlsx
@@ -3,21 +3,22 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A101\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A101\Desktop\NewSelenium\Selenium\JUnit\src\test\java\Day_13_ExcelAutomation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD00A4C0-0FF6-42DA-8482-DA7AC3A65CCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A301D5-52F2-4CA6-BB95-061B62C355DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6720" yWindow="2055" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15780" yWindow="0" windowWidth="13125" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
   <si>
     <t>ulke no</t>
   </si>
@@ -160,12 +161,25 @@
   </si>
   <si>
     <t>dd baskent</t>
+  </si>
+  <si>
+    <t>Nufus</t>
+  </si>
+  <si>
+    <t>150000</t>
+  </si>
+  <si>
+    <t>2500</t>
+  </si>
+  <si>
+    <t>54000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -477,205 +491,344 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.140625" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" customWidth="1"/>
-    <col min="5" max="5" width="25.5703125" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="15.140625"/>
+    <col min="3" max="3" customWidth="true" width="14.140625"/>
+    <col min="4" max="4" customWidth="true" width="13.85546875"/>
+    <col min="5" max="5" customWidth="true" width="25.5703125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>4</v>
       </c>
+      <c r="F1" t="s" s="0">
+        <v>45</v>
+      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="0">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" t="s" s="0">
         <v>8</v>
       </c>
+      <c r="F2" t="s" s="0">
+        <v>46</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="0">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" t="s" s="0">
         <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="0">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" t="s" s="0">
         <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="0">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" t="s" s="0">
         <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="0">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" t="s" s="0">
         <v>41</v>
       </c>
+      <c r="F6" t="s" s="0">
+        <v>48</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="0">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" t="s" s="0">
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="0">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" t="s" s="0">
         <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="0">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" t="s" s="0">
         <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="0">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" t="s" s="0">
         <v>37</v>
       </c>
+      <c r="F10" t="s" s="0">
+        <v>47</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="0">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" t="s" s="0">
         <v>35</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" t="s" s="0">
         <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{242A9F42-9AC9-462F-8B09-031FE054D1D3}">
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="0">
+        <v>3</v>
+      </c>
+      <c r="C3" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C5" s="0">
+        <v>3</v>
+      </c>
+      <c r="D5" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="0">
+        <v>4</v>
+      </c>
+      <c r="C7" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="0">
+        <v>2</v>
+      </c>
+      <c r="D8" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="0">
+        <v>5</v>
+      </c>
+      <c r="B9" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="0">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="0">
+        <v>4</v>
+      </c>
+      <c r="C11" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C12" s="0">
+        <v>6</v>
+      </c>
+      <c r="E12" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C13" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="0">
+        <v>7</v>
+      </c>
+      <c r="E14" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C15" s="0">
+        <v>8</v>
+      </c>
+      <c r="D15" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D16" s="0">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C17" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C19" s="0">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
